--- a/OBE/data/bak/Result_FOLD.xlsx
+++ b/OBE/data/bak/Result_FOLD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBELAB_JH_DESKTOP\Documents\GitHub\testfornothing\OBE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBELAB_JH_DESKTOP\Documents\GitHub\testfornothing\OBE\data\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6DB19-D007-4AF9-B198-55E819C8BF3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5B564-43C4-43D7-BD7C-909FD4C09176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="130">
   <si>
     <t>LV1</t>
   </si>
@@ -419,6 +419,14 @@
   </si>
   <si>
     <t>5번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +456,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,10 +499,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,15 +845,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="R95" sqref="R95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -883,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -933,7 +950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -983,7 +1000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1033,7 +1050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1083,7 +1100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1133,7 +1150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1183,7 +1200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1333,7 +1350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1383,7 +1400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1533,7 +1550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1633,7 +1650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1683,7 +1700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1833,7 +1850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1883,7 +1900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1933,7 +1950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2033,7 +2050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2083,7 +2100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2133,7 +2150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2183,7 +2200,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2283,7 +2300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2333,7 +2350,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2383,7 +2400,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2433,7 +2450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2483,7 +2500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2533,7 +2550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2583,7 +2600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2633,7 +2650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2683,7 +2700,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2733,7 +2750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2783,7 +2800,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2833,7 +2850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2883,7 +2900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2933,7 +2950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2983,7 +3000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3033,7 +3050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3083,7 +3100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3133,7 +3150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3233,7 +3250,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3283,7 +3300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3383,7 +3400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3433,7 +3450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3483,7 +3500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3533,7 +3550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3583,7 +3600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3633,7 +3650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3683,7 +3700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3733,7 +3750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3783,7 +3800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3833,7 +3850,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3883,7 +3900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3933,7 +3950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3983,7 +4000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4033,7 +4050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4083,7 +4100,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4133,7 +4150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4183,7 +4200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4233,7 +4250,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4283,7 +4300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4333,7 +4350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4383,7 +4400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4433,7 +4450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4483,7 +4500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4583,7 +4600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4633,7 +4650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4683,7 +4700,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23">
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -4727,7 +4744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23">
       <c r="B79" t="s">
         <v>119</v>
       </c>
@@ -4800,7 +4817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23">
       <c r="B80" t="s">
         <v>123</v>
       </c>
@@ -4876,7 +4893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:23">
       <c r="B81" t="s">
         <v>120</v>
       </c>
@@ -4952,7 +4969,7 @@
         <v>9.3333333333333338E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:23">
       <c r="B82" t="s">
         <v>123</v>
       </c>
@@ -5028,7 +5045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:23">
       <c r="B83" t="s">
         <v>121</v>
       </c>
@@ -5104,7 +5121,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:23">
       <c r="B84" t="s">
         <v>123</v>
       </c>
@@ -5180,7 +5197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:23">
       <c r="B85" t="s">
         <v>122</v>
       </c>
@@ -5256,7 +5273,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:23">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -5332,7 +5349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:23">
       <c r="B87" t="s">
         <v>127</v>
       </c>
@@ -5376,7 +5393,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:23">
       <c r="B88" t="s">
         <v>123</v>
       </c>
@@ -5417,7 +5434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:23">
       <c r="B89" t="s">
         <v>124</v>
       </c>
@@ -5490,7 +5507,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:23">
       <c r="B90" t="s">
         <v>123</v>
       </c>
@@ -5566,7 +5583,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:23">
+      <c r="C91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="S91" t="s">
         <v>123</v>
       </c>
@@ -5581,6 +5640,497 @@
       </c>
       <c r="W91">
         <v>0.22666666666666666</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23">
+      <c r="C92" s="2">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.49315068493150599</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.51369863013698602</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.32876712328767099</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.30821917808219101</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.36986301369863001</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0.57534246575342396</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.34931506849315003</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.63013698630136905</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.397260273972602</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0.32191780821917798</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0.37671232876712302</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0.40410958904109501</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23">
+      <c r="C93" t="str">
+        <f>_xlfn.IFS(C92&gt;0.5,"easy",C92&gt;0.4,"midium",,"hard")</f>
+        <v>easy</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" ref="D93:P93" si="22">_xlfn.IFS(D92&gt;0.5,"easy",D92&gt;0.4,"midium",,"hard")</f>
+        <v>midium</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="22"/>
+        <v>easy</v>
+      </c>
+      <c r="F93" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H93" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="22"/>
+        <v>easy</v>
+      </c>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="22"/>
+        <v>easy</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="22"/>
+        <v>midium</v>
+      </c>
+      <c r="M93" t="s">
+        <v>128</v>
+      </c>
+      <c r="N93" t="s">
+        <v>128</v>
+      </c>
+      <c r="O93" t="s">
+        <v>128</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="22"/>
+        <v>midium</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <f>SUM(C94:P94)</f>
+        <v>30</v>
+      </c>
+      <c r="R94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1.5</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>1.5</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ref="Q95:Q102" si="23">SUM(C95:P95)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1.6</v>
+      </c>
+      <c r="G96">
+        <v>1.6</v>
+      </c>
+      <c r="H96">
+        <v>1.4</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1.6</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1.2</v>
+      </c>
+      <c r="M96">
+        <v>1.4</v>
+      </c>
+      <c r="N96">
+        <v>1.6</v>
+      </c>
+      <c r="O96">
+        <v>1.4</v>
+      </c>
+      <c r="P96">
+        <v>1.2</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="23"/>
+        <v>17.999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <v>3</v>
+      </c>
+      <c r="P97">
+        <v>2</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2.5</v>
+      </c>
+      <c r="G98">
+        <v>2.5</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>2.5</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1.5</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>2.5</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <v>1.5</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1.5</v>
+      </c>
+      <c r="E99">
+        <v>1.5</v>
+      </c>
+      <c r="F99">
+        <v>2.5</v>
+      </c>
+      <c r="G99">
+        <v>2.5</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2.5</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1.5</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2.5</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>1.5</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="R99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1.2</v>
+      </c>
+      <c r="E100">
+        <v>1.2</v>
+      </c>
+      <c r="F100">
+        <v>1.6</v>
+      </c>
+      <c r="G100">
+        <v>1.6</v>
+      </c>
+      <c r="H100">
+        <v>1.4</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1.6</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1.2</v>
+      </c>
+      <c r="M100">
+        <v>1.4</v>
+      </c>
+      <c r="N100">
+        <v>1.6</v>
+      </c>
+      <c r="O100">
+        <v>1.4</v>
+      </c>
+      <c r="P100">
+        <v>1.2</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="23"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="23"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18">
+      <c r="Q102">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
